--- a/biology/Botanique/Uvariodendron_giganteum/Uvariodendron_giganteum.xlsx
+++ b/biology/Botanique/Uvariodendron_giganteum/Uvariodendron_giganteum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uvariodendron giganteum (Engl.) R. E. Fr. est une espèce de plantes de la famille des Annonaceae et du genre Uvariodendron, présente au Cameroun et au Gabon.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste ou petit arbre dont la hauteur est comprise entre 5 et 10 m[2]. Il doit son épithète spécifique giganteum à ses feuilles géantes [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste ou petit arbre dont la hauteur est comprise entre 5 et 10 m. Il doit son épithète spécifique giganteum à ses feuilles géantes .
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, l'espèce a d'abord été collectée au début du 20e siècle sur le mont Cameroun et à Yaoundé, mais n'a pas été retrouvée sur le premier site malgré des recherches intensives dans les années 1990[3]. 
-Au Cameroun, on ne lui connaît plus que deux localisations dans les monts Bakossi, la réserve forestière de la rivière Mungo et le mont Koupé au-dessus de Nyasoso[3].
-Au Gabon, trois collections sur deux sites avaient été réunies dans les années 1960[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, l'espèce a d'abord été collectée au début du 20e siècle sur le mont Cameroun et à Yaoundé, mais n'a pas été retrouvée sur le premier site malgré des recherches intensives dans les années 1990. 
+Au Cameroun, on ne lui connaît plus que deux localisations dans les monts Bakossi, la réserve forestière de la rivière Mungo et le mont Koupé au-dessus de Nyasoso.
+Au Gabon, trois collections sur deux sites avaient été réunies dans les années 1960.
 </t>
         </is>
       </c>
